--- a/REGULAR/OJT/JORGE, CAROLINA.xlsx
+++ b/REGULAR/OJT/JORGE, CAROLINA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC18CC10-99FC-4370-9234-00BDDF3F2BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="476">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1477,7 +1476,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2136,7 +2135,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2165,7 +2163,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2182,26 +2180,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K611" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K611" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K611" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K611"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICVLARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICVLARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2508,34 +2506,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K611"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A562" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A562" activePane="bottomLeft"/>
       <selection activeCell="B218" sqref="B218"/>
-      <selection pane="bottomLeft" activeCell="C573" sqref="C573:C575"/>
+      <selection pane="bottomLeft" activeCell="C578" sqref="C578"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>8</v>
       </c>
@@ -2558,7 +2556,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
@@ -2580,7 +2578,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
@@ -2602,7 +2600,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>17</v>
@@ -2610,7 +2608,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2623,7 +2621,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -2640,7 +2638,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2675,7 +2673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>22</v>
@@ -2684,7 +2682,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>90.605999999999938</v>
+        <v>93.105999999999938</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2694,12 +2692,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>228.375</v>
+        <v>230.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>89</v>
       </c>
@@ -2721,7 +2719,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>35827</v>
       </c>
@@ -2747,7 +2745,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="20" t="s">
         <v>101</v>
@@ -2767,7 +2765,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>35855</v>
       </c>
@@ -2791,7 +2789,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="20" t="s">
         <v>105</v>
@@ -2811,7 +2809,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>35886</v>
       </c>
@@ -2835,7 +2833,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>35916</v>
       </c>
@@ -2861,7 +2859,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="20" t="s">
         <v>107</v>
@@ -2880,7 +2878,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="20" t="s">
         <v>111</v>
@@ -2897,7 +2895,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>35947</v>
       </c>
@@ -2921,7 +2919,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>107</v>
@@ -2940,7 +2938,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>115</v>
@@ -2957,7 +2955,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>35977</v>
       </c>
@@ -2983,7 +2981,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>107</v>
@@ -3002,7 +3000,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="20" t="s">
         <v>117</v>
@@ -3019,7 +3017,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>36008</v>
       </c>
@@ -3045,7 +3043,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="20" t="s">
         <v>120</v>
@@ -3062,7 +3060,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>36039</v>
       </c>
@@ -3086,7 +3084,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>36069</v>
       </c>
@@ -3110,7 +3108,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>36100</v>
       </c>
@@ -3136,7 +3134,7 @@
         <v>35896</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
         <v>108</v>
@@ -3155,7 +3153,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="20" t="s">
         <v>124</v>
@@ -3172,7 +3170,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>36130</v>
       </c>
@@ -3198,7 +3196,7 @@
         <v>35897</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>127</v>
@@ -3217,7 +3215,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>107</v>
@@ -3236,7 +3234,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>128</v>
@@ -3253,7 +3251,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>91</v>
       </c>
@@ -3275,7 +3273,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>36161</v>
       </c>
@@ -3299,7 +3297,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>130</v>
@@ -3318,7 +3316,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>131</v>
@@ -3335,7 +3333,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>36192</v>
       </c>
@@ -3361,7 +3359,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
         <v>134</v>
@@ -3380,7 +3378,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>136</v>
@@ -3397,7 +3395,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>36220</v>
       </c>
@@ -3423,7 +3421,7 @@
         <v>36163</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>137</v>
@@ -3440,7 +3438,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>36251</v>
       </c>
@@ -3464,7 +3462,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>36281</v>
       </c>
@@ -3488,7 +3486,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>107</v>
@@ -3505,7 +3503,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="20" t="s">
         <v>139</v>
@@ -3522,7 +3520,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>36312</v>
       </c>
@@ -3546,7 +3544,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>107</v>
@@ -3565,7 +3563,7 @@
         <v>36378</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="20" t="s">
         <v>107</v>
@@ -3584,7 +3582,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>141</v>
@@ -3601,7 +3599,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>36342</v>
       </c>
@@ -3627,7 +3625,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="20" t="s">
         <v>108</v>
@@ -3646,7 +3644,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>143</v>
@@ -3663,7 +3661,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>36373</v>
       </c>
@@ -3689,7 +3687,7 @@
         <v>36411</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>146</v>
@@ -3706,7 +3704,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="49"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>36404</v>
       </c>
@@ -3732,7 +3730,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="20" t="s">
         <v>148</v>
@@ -3749,7 +3747,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>36434</v>
       </c>
@@ -3775,7 +3773,7 @@
         <v>36351</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>36465</v>
       </c>
@@ -3801,7 +3799,7 @@
         <v>36383</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>150</v>
@@ -3818,7 +3816,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>36495</v>
       </c>
@@ -3844,7 +3842,7 @@
         <v>36445</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>134</v>
@@ -3863,7 +3861,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
         <v>152</v>
@@ -3880,7 +3878,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
         <v>92</v>
       </c>
@@ -3902,7 +3900,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>36526</v>
       </c>
@@ -3926,7 +3924,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>36557</v>
       </c>
@@ -3952,7 +3950,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>154</v>
@@ -3969,7 +3967,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>36586</v>
       </c>
@@ -3993,7 +3991,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>172</v>
@@ -4010,7 +4008,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>36617</v>
       </c>
@@ -4036,7 +4034,7 @@
         <v>36803</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="B73" s="20" t="s">
         <v>107</v>
@@ -4055,7 +4053,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="20" t="s">
         <v>168</v>
@@ -4072,7 +4070,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>36647</v>
       </c>
@@ -4098,7 +4096,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="20" t="s">
         <v>156</v>
@@ -4115,7 +4113,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>36678</v>
       </c>
@@ -4139,7 +4137,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>107</v>
@@ -4158,7 +4156,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="20" t="s">
         <v>159</v>
@@ -4175,7 +4173,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>36708</v>
       </c>
@@ -4199,7 +4197,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>36739</v>
       </c>
@@ -4223,7 +4221,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="20" t="s">
         <v>161</v>
@@ -4245,7 +4243,7 @@
         <v>36777</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>36770</v>
       </c>
@@ -4271,7 +4269,7 @@
         <v>36565</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>111</v>
@@ -4291,7 +4289,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>36800</v>
       </c>
@@ -4317,7 +4315,7 @@
         <v>36595</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>163</v>
@@ -4334,7 +4332,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="49"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>36831</v>
       </c>
@@ -4360,7 +4358,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>108</v>
@@ -4382,7 +4380,7 @@
         <v>36537</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>167</v>
@@ -4402,7 +4400,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>36861</v>
       </c>
@@ -4428,7 +4426,7 @@
         <v>36842</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>103</v>
@@ -4445,7 +4443,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23"/>
       <c r="B92" s="20" t="s">
         <v>164</v>
@@ -4462,7 +4460,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
         <v>93</v>
       </c>
@@ -4484,7 +4482,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>36892</v>
       </c>
@@ -4508,7 +4506,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>36923</v>
       </c>
@@ -4534,7 +4532,7 @@
         <v>37227</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>107</v>
@@ -4553,7 +4551,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>127</v>
@@ -4572,7 +4570,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>36951</v>
       </c>
@@ -4598,7 +4596,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>103</v>
@@ -4615,7 +4613,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>36982</v>
       </c>
@@ -4641,7 +4639,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>37012</v>
       </c>
@@ -4665,7 +4663,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>37043</v>
       </c>
@@ -4691,7 +4689,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>37073</v>
       </c>
@@ -4717,7 +4715,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>37104</v>
       </c>
@@ -4743,7 +4741,7 @@
         <v>37111</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
         <v>118</v>
@@ -4762,7 +4760,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>37135</v>
       </c>
@@ -4788,7 +4786,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>37165</v>
       </c>
@@ -4814,7 +4812,7 @@
         <v>37113</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>149</v>
@@ -4833,7 +4831,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>186</v>
@@ -4850,7 +4848,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>37196</v>
       </c>
@@ -4876,7 +4874,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>107</v>
@@ -4895,7 +4893,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>103</v>
@@ -4912,7 +4910,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>187</v>
@@ -4929,7 +4927,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>37226</v>
       </c>
@@ -4949,7 +4947,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="48" t="s">
         <v>94</v>
       </c>
@@ -4971,7 +4969,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>37257</v>
       </c>
@@ -4997,7 +4995,7 @@
         <v>37316</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>103</v>
@@ -5014,7 +5012,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>107</v>
@@ -5033,7 +5031,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>202</v>
@@ -5050,7 +5048,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="49"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>37288</v>
       </c>
@@ -5076,7 +5074,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>204</v>
@@ -5096,7 +5094,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>37316</v>
       </c>
@@ -5120,7 +5118,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>37347</v>
       </c>
@@ -5144,7 +5142,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>37377</v>
       </c>
@@ -5170,7 +5168,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>103</v>
@@ -5190,7 +5188,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>37408</v>
       </c>
@@ -5214,7 +5212,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <v>37438</v>
       </c>
@@ -5240,7 +5238,7 @@
         <v>37353</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>107</v>
@@ -5262,7 +5260,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23"/>
       <c r="B129" s="20" t="s">
         <v>211</v>
@@ -5282,7 +5280,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <v>37469</v>
       </c>
@@ -5306,7 +5304,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>37500</v>
       </c>
@@ -5332,7 +5330,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>213</v>
@@ -5349,7 +5347,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>37530</v>
       </c>
@@ -5375,7 +5373,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>108</v>
@@ -5394,7 +5392,7 @@
         <v>37357</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>103</v>
@@ -5411,7 +5409,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>37561</v>
       </c>
@@ -5437,7 +5435,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>217</v>
@@ -5454,7 +5452,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <v>37591</v>
       </c>
@@ -5480,7 +5478,7 @@
         <v>37327</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="48" t="s">
         <v>95</v>
       </c>
@@ -5502,7 +5500,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <v>37622</v>
       </c>
@@ -5528,7 +5526,7 @@
         <v>37681</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>107</v>
@@ -5547,7 +5545,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>218</v>
@@ -5564,7 +5562,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>37653</v>
       </c>
@@ -5588,7 +5586,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>220</v>
@@ -5605,7 +5603,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>37681</v>
       </c>
@@ -5625,7 +5623,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <v>37712</v>
       </c>
@@ -5649,7 +5647,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>37742</v>
       </c>
@@ -5675,7 +5673,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>103</v>
@@ -5692,7 +5690,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <v>37773</v>
       </c>
@@ -5718,7 +5716,7 @@
         <v>37900</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <v>37803</v>
       </c>
@@ -5744,7 +5742,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>211</v>
@@ -5761,7 +5759,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>37834</v>
       </c>
@@ -5787,7 +5785,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>108</v>
@@ -5806,7 +5804,7 @@
         <v>37750</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>226</v>
@@ -5823,7 +5821,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>37865</v>
       </c>
@@ -5847,7 +5845,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <v>37895</v>
       </c>
@@ -5873,7 +5871,7 @@
         <v>37812</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>228</v>
@@ -5893,7 +5891,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <v>37926</v>
       </c>
@@ -5919,7 +5917,7 @@
         <v>37936</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23"/>
       <c r="B159" s="20" t="s">
         <v>108</v>
@@ -5941,7 +5939,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>108</v>
@@ -5963,7 +5961,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>108</v>
@@ -5982,7 +5980,7 @@
         <v>37633</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>229</v>
@@ -6002,7 +6000,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <v>37956</v>
       </c>
@@ -6028,7 +6026,7 @@
         <v>37937</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>103</v>
@@ -6048,7 +6046,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>232</v>
@@ -6065,7 +6063,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="48" t="s">
         <v>96</v>
       </c>
@@ -6087,7 +6085,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <v>37987</v>
       </c>
@@ -6111,7 +6109,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <v>38018</v>
       </c>
@@ -6137,7 +6135,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>235</v>
@@ -6157,7 +6155,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <v>38047</v>
       </c>
@@ -6183,7 +6181,7 @@
         <v>38020</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>103</v>
@@ -6192,7 +6190,7 @@
       <c r="D171" s="39"/>
       <c r="E171" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>90.605999999999938</v>
+        <v>93.105999999999938</v>
       </c>
       <c r="F171" s="20"/>
       <c r="G171" s="13" t="str">
@@ -6202,14 +6200,14 @@
       <c r="H171" s="39"/>
       <c r="I171" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>228.375</v>
+        <v>230.875</v>
       </c>
       <c r="J171" s="11"/>
       <c r="K171" s="20" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>237</v>
@@ -6229,7 +6227,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <v>38078</v>
       </c>
@@ -6255,7 +6253,7 @@
         <v>38325</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>238</v>
@@ -6275,7 +6273,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <v>38108</v>
       </c>
@@ -6299,7 +6297,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>103</v>
@@ -6316,7 +6314,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>38139</v>
       </c>
@@ -6340,7 +6338,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>38169</v>
       </c>
@@ -6364,7 +6362,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <v>38200</v>
       </c>
@@ -6390,7 +6388,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>127</v>
@@ -6412,7 +6410,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>243</v>
@@ -6434,7 +6432,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <v>38231</v>
       </c>
@@ -6458,7 +6456,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <v>38261</v>
       </c>
@@ -6484,7 +6482,7 @@
         <v>38148</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>249</v>
@@ -6504,7 +6502,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <v>38292</v>
       </c>
@@ -6528,7 +6526,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>251</v>
@@ -6545,7 +6543,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <v>38322</v>
       </c>
@@ -6571,7 +6569,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>252</v>
@@ -6591,7 +6589,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="48" t="s">
         <v>97</v>
       </c>
@@ -6613,7 +6611,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <v>38353</v>
       </c>
@@ -6637,7 +6635,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <v>38384</v>
       </c>
@@ -6663,7 +6661,7 @@
         <v>38413</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>107</v>
@@ -6685,7 +6683,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>258</v>
@@ -6705,7 +6703,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <v>38412</v>
       </c>
@@ -6729,7 +6727,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <v>38443</v>
       </c>
@@ -6753,7 +6751,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23"/>
       <c r="B196" s="20" t="s">
         <v>261</v>
@@ -6773,7 +6771,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <v>38473</v>
       </c>
@@ -6799,7 +6797,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>103</v>
@@ -6819,7 +6817,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>127</v>
@@ -6841,7 +6839,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>156</v>
@@ -6861,7 +6859,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <v>38504</v>
       </c>
@@ -6885,7 +6883,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23">
         <v>38534</v>
       </c>
@@ -6909,7 +6907,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <v>38565</v>
       </c>
@@ -6935,7 +6933,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>265</v>
@@ -6955,7 +6953,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <v>38596</v>
       </c>
@@ -6979,7 +6977,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <v>38626</v>
       </c>
@@ -7005,7 +7003,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>269</v>
@@ -7025,7 +7023,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <v>38657</v>
       </c>
@@ -7051,7 +7049,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>103</v>
@@ -7068,7 +7066,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>167</v>
@@ -7088,7 +7086,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <v>38687</v>
       </c>
@@ -7114,7 +7112,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>255</v>
@@ -7134,7 +7132,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="48" t="s">
         <v>98</v>
       </c>
@@ -7156,7 +7154,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <v>38718</v>
       </c>
@@ -7180,7 +7178,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <v>38749</v>
       </c>
@@ -7206,7 +7204,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>275</v>
@@ -7223,7 +7221,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <v>38777</v>
       </c>
@@ -7247,7 +7245,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <v>38808</v>
       </c>
@@ -7273,7 +7271,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>254</v>
@@ -7295,7 +7293,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>243</v>
@@ -7315,7 +7313,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <v>38838</v>
       </c>
@@ -7339,7 +7337,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <v>38869</v>
       </c>
@@ -7363,7 +7361,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>149</v>
@@ -7385,7 +7383,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>281</v>
@@ -7405,7 +7403,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <v>38899</v>
       </c>
@@ -7431,7 +7429,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>282</v>
@@ -7451,7 +7449,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <v>38930</v>
       </c>
@@ -7477,7 +7475,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>149</v>
@@ -7497,7 +7495,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>106</v>
@@ -7517,7 +7515,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <v>38961</v>
       </c>
@@ -7543,7 +7541,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>286</v>
@@ -7563,7 +7561,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <v>38991</v>
       </c>
@@ -7587,7 +7585,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <v>39022</v>
       </c>
@@ -7611,7 +7609,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>103</v>
@@ -7631,7 +7629,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>254</v>
@@ -7653,7 +7651,7 @@
         <v>39033</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>290</v>
@@ -7673,7 +7671,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>39052</v>
       </c>
@@ -7697,7 +7695,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="48" t="s">
         <v>99</v>
       </c>
@@ -7717,7 +7715,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>39083</v>
       </c>
@@ -7741,7 +7739,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>39114</v>
       </c>
@@ -7767,7 +7765,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>107</v>
@@ -7789,7 +7787,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>296</v>
@@ -7809,7 +7807,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>39142</v>
       </c>
@@ -7833,7 +7831,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <v>39173</v>
       </c>
@@ -7857,7 +7855,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <v>39203</v>
       </c>
@@ -7881,7 +7879,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <v>39234</v>
       </c>
@@ -7905,7 +7903,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>68</v>
@@ -7927,7 +7925,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>302</v>
@@ -7947,7 +7945,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <v>39264</v>
       </c>
@@ -7973,7 +7971,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>149</v>
@@ -7995,7 +7993,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
         <v>305</v>
@@ -8015,7 +8013,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <v>39295</v>
       </c>
@@ -8039,7 +8037,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <v>39326</v>
       </c>
@@ -8063,7 +8061,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <v>39356</v>
       </c>
@@ -8087,7 +8085,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <v>39387</v>
       </c>
@@ -8111,7 +8109,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>311</v>
@@ -8131,7 +8129,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <v>39417</v>
       </c>
@@ -8155,7 +8153,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="48" t="s">
         <v>100</v>
       </c>
@@ -8175,7 +8173,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <v>39448</v>
       </c>
@@ -8199,7 +8197,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <f>EDATE(A259,1)</f>
         <v>39479</v>
@@ -8224,7 +8222,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <f t="shared" ref="A261:A392" si="0">EDATE(A260,1)</f>
         <v>39508</v>
@@ -8249,7 +8247,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>316</v>
@@ -8269,7 +8267,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <f>EDATE(A261,1)</f>
         <v>39539</v>
@@ -8294,7 +8292,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <f t="shared" si="0"/>
         <v>39569</v>
@@ -8319,7 +8317,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>103</v>
@@ -8339,7 +8337,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
         <v>254</v>
@@ -8361,7 +8359,7 @@
         <v>39758</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <f>EDATE(A264,1)</f>
         <v>39600</v>
@@ -8386,7 +8384,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <f t="shared" si="0"/>
         <v>39630</v>
@@ -8411,7 +8409,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <f t="shared" si="0"/>
         <v>39661</v>
@@ -8436,7 +8434,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <f t="shared" si="0"/>
         <v>39692</v>
@@ -8463,7 +8461,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>321</v>
@@ -8483,7 +8481,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23">
         <f>EDATE(A270,1)</f>
         <v>39722</v>
@@ -8510,7 +8508,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>107</v>
@@ -8532,7 +8530,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>322</v>
@@ -8552,7 +8550,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <f>EDATE(A272,1)</f>
         <v>39753</v>
@@ -8577,7 +8575,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
         <v>103</v>
@@ -8597,7 +8595,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>85</v>
@@ -8619,7 +8617,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>254</v>
@@ -8641,7 +8639,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>323</v>
@@ -8661,7 +8659,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <f>EDATE(A275,1)</f>
         <v>39783</v>
@@ -8686,7 +8684,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="48" t="s">
         <v>199</v>
       </c>
@@ -8708,7 +8706,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <f>EDATE(A280,1)</f>
         <v>39814</v>
@@ -8733,7 +8731,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <f t="shared" si="0"/>
         <v>39845</v>
@@ -8758,7 +8756,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <f t="shared" si="0"/>
         <v>39873</v>
@@ -8785,7 +8783,7 @@
         <v>39481</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>103</v>
@@ -8805,7 +8803,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>333</v>
@@ -8825,7 +8823,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <f>EDATE(A284,1)</f>
         <v>39904</v>
@@ -8850,7 +8848,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <f t="shared" si="0"/>
         <v>39934</v>
@@ -8877,7 +8875,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>220</v>
@@ -8897,7 +8895,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>107</v>
@@ -8919,7 +8917,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
         <v>339</v>
@@ -8939,7 +8937,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <f>EDATE(A288,1)</f>
         <v>39965</v>
@@ -8964,7 +8962,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <f t="shared" si="0"/>
         <v>39995</v>
@@ -8991,7 +8989,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
         <v>341</v>
@@ -9011,7 +9009,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <f>EDATE(A293,1)</f>
         <v>40026</v>
@@ -9036,7 +9034,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <f t="shared" si="0"/>
         <v>40057</v>
@@ -9061,7 +9059,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <f t="shared" si="0"/>
         <v>40087</v>
@@ -9088,7 +9086,7 @@
         <v>39701</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>344</v>
@@ -9108,7 +9106,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <f>EDATE(A297,1)</f>
         <v>40118</v>
@@ -9135,7 +9133,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>254</v>
@@ -9157,7 +9155,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
         <v>254</v>
@@ -9179,7 +9177,7 @@
         <v>39459</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>107</v>
@@ -9198,7 +9196,7 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>348</v>
@@ -9218,7 +9216,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <f>EDATE(A299,1)</f>
         <v>40148</v>
@@ -9243,7 +9241,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="48" t="s">
         <v>198</v>
       </c>
@@ -9258,7 +9256,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23">
         <f>EDATE(A304,1)</f>
         <v>40179</v>
@@ -9283,7 +9281,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <f t="shared" si="0"/>
         <v>40210</v>
@@ -9310,7 +9308,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>85</v>
@@ -9329,7 +9327,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23"/>
       <c r="B309" s="20" t="s">
         <v>149</v>
@@ -9348,7 +9346,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>121</v>
@@ -9365,7 +9363,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <f>EDATE(A307,1)</f>
         <v>40238</v>
@@ -9392,7 +9390,7 @@
         <v>40454</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23"/>
       <c r="B312" s="20" t="s">
         <v>351</v>
@@ -9412,7 +9410,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="49"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <f>EDATE(A311,1)</f>
         <v>40269</v>
@@ -9439,7 +9437,7 @@
         <v>40302</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23"/>
       <c r="B314" s="20" t="s">
         <v>107</v>
@@ -9461,7 +9459,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>352</v>
@@ -9481,7 +9479,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <f>EDATE(A313,1)</f>
         <v>40299</v>
@@ -9508,7 +9506,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23"/>
       <c r="B317" s="20" t="s">
         <v>107</v>
@@ -9530,7 +9528,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
         <v>205</v>
@@ -9550,7 +9548,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <f>EDATE(A316,1)</f>
         <v>40330</v>
@@ -9577,7 +9575,7 @@
         <v>40184</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
         <v>103</v>
@@ -9597,7 +9595,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>85</v>
@@ -9619,7 +9617,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>353</v>
@@ -9639,7 +9637,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23">
         <f>EDATE(A319,1)</f>
         <v>40360</v>
@@ -9666,7 +9664,7 @@
         <v>40397</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23"/>
       <c r="B324" s="20" t="s">
         <v>107</v>
@@ -9688,7 +9686,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>163</v>
@@ -9708,7 +9706,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <f>EDATE(A323,1)</f>
         <v>40391</v>
@@ -9735,7 +9733,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>354</v>
@@ -9755,7 +9753,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23">
         <f>EDATE(A326,1)</f>
         <v>40422</v>
@@ -9782,7 +9780,7 @@
         <v>40338</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
         <v>355</v>
@@ -9802,7 +9800,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <f>EDATE(A328,1)</f>
         <v>40452</v>
@@ -9829,7 +9827,7 @@
         <v>40219</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>103</v>
@@ -9849,7 +9847,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>85</v>
@@ -9871,7 +9869,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23"/>
       <c r="B333" s="20" t="s">
         <v>152</v>
@@ -9891,7 +9889,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23">
         <f>EDATE(A330,1)</f>
         <v>40483</v>
@@ -9916,7 +9914,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <f t="shared" si="0"/>
         <v>40513</v>
@@ -9941,7 +9939,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23"/>
       <c r="B336" s="20" t="s">
         <v>356</v>
@@ -9961,7 +9959,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="48" t="s">
         <v>197</v>
       </c>
@@ -9983,7 +9981,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23">
         <f>EDATE(A335,1)</f>
         <v>40544</v>
@@ -10008,7 +10006,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <f t="shared" si="0"/>
         <v>40575</v>
@@ -10035,7 +10033,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>357</v>
@@ -10055,7 +10053,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <f>EDATE(A339,1)</f>
         <v>40603</v>
@@ -10082,7 +10080,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
         <v>163</v>
@@ -10102,7 +10100,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <f>EDATE(A341,1)</f>
         <v>40634</v>
@@ -10129,7 +10127,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>297</v>
@@ -10149,7 +10147,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <f>EDATE(A343,1)</f>
         <v>40664</v>
@@ -10176,7 +10174,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23"/>
       <c r="B346" s="20" t="s">
         <v>220</v>
@@ -10196,7 +10194,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>378</v>
@@ -10216,7 +10214,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23">
         <f>EDATE(A345,1)</f>
         <v>40695</v>
@@ -10243,7 +10241,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>254</v>
@@ -10265,7 +10263,7 @@
         <v>40640</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23"/>
       <c r="B350" s="20" t="s">
         <v>376</v>
@@ -10285,7 +10283,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <f>EDATE(A348,1)</f>
         <v>40725</v>
@@ -10310,7 +10308,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23">
         <f t="shared" si="0"/>
         <v>40756</v>
@@ -10335,7 +10333,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23">
         <f t="shared" si="0"/>
         <v>40787</v>
@@ -10362,7 +10360,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
         <v>380</v>
@@ -10382,7 +10380,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23">
         <f>EDATE(A353,1)</f>
         <v>40817</v>
@@ -10407,7 +10405,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <f t="shared" si="0"/>
         <v>40848</v>
@@ -10434,7 +10432,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>103</v>
@@ -10454,7 +10452,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
         <v>381</v>
@@ -10474,7 +10472,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23">
         <f>EDATE(A356,1)</f>
         <v>40878</v>
@@ -10499,7 +10497,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23"/>
       <c r="B360" s="20" t="s">
         <v>385</v>
@@ -10516,7 +10514,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="48" t="s">
         <v>196</v>
       </c>
@@ -10535,7 +10533,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23">
         <f>EDATE(A359,1)</f>
         <v>40909</v>
@@ -10560,7 +10558,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23">
         <f t="shared" si="0"/>
         <v>40940</v>
@@ -10585,7 +10583,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>387</v>
@@ -10605,7 +10603,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23">
         <f>EDATE(A363,1)</f>
         <v>40969</v>
@@ -10632,7 +10630,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23"/>
       <c r="B366" s="20" t="s">
         <v>388</v>
@@ -10652,7 +10650,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23">
         <f>EDATE(A365,1)</f>
         <v>41000</v>
@@ -10679,7 +10677,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
         <v>389</v>
@@ -10699,7 +10697,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23">
         <f>EDATE(A367,1)</f>
         <v>41030</v>
@@ -10726,7 +10724,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23"/>
       <c r="B370" s="20" t="s">
         <v>220</v>
@@ -10746,7 +10744,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>390</v>
@@ -10766,7 +10764,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23">
         <f>EDATE(A369,1)</f>
         <v>41061</v>
@@ -10791,7 +10789,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23">
         <f t="shared" si="0"/>
         <v>41091</v>
@@ -10818,7 +10816,7 @@
         <v>41067</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23"/>
       <c r="B374" s="20" t="s">
         <v>302</v>
@@ -10838,7 +10836,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23">
         <f>EDATE(A373,1)</f>
         <v>41122</v>
@@ -10863,7 +10861,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23">
         <f t="shared" si="0"/>
         <v>41153</v>
@@ -10888,7 +10886,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23">
         <f t="shared" si="0"/>
         <v>41183</v>
@@ -10915,7 +10913,7 @@
         <v>41039</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>85</v>
@@ -10937,7 +10935,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23"/>
       <c r="B379" s="20" t="s">
         <v>267</v>
@@ -10957,7 +10955,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23">
         <f>EDATE(A377,1)</f>
         <v>41214</v>
@@ -10984,7 +10982,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>103</v>
@@ -11004,7 +11002,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23"/>
       <c r="B382" s="20" t="s">
         <v>398</v>
@@ -11024,7 +11022,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23">
         <f>EDATE(A380,1)</f>
         <v>41244</v>
@@ -11049,7 +11047,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="48" t="s">
         <v>195</v>
       </c>
@@ -11071,7 +11069,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23">
         <f>EDATE(A383,1)</f>
         <v>41275</v>
@@ -11096,7 +11094,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23">
         <f t="shared" si="0"/>
         <v>41306</v>
@@ -11123,7 +11121,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23"/>
       <c r="B387" s="20" t="s">
         <v>103</v>
@@ -11140,7 +11138,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23"/>
       <c r="B388" s="20" t="s">
         <v>402</v>
@@ -11157,7 +11155,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23">
         <f>EDATE(A386,1)</f>
         <v>41334</v>
@@ -11182,7 +11180,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23">
         <f t="shared" si="0"/>
         <v>41365</v>
@@ -11207,7 +11205,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23">
         <f t="shared" si="0"/>
         <v>41395</v>
@@ -11232,7 +11230,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23">
         <f t="shared" si="0"/>
         <v>41426</v>
@@ -11257,7 +11255,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23">
         <f t="shared" ref="A393:A486" si="1">EDATE(A392,1)</f>
         <v>41456</v>
@@ -11282,7 +11280,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23">
         <f t="shared" si="1"/>
         <v>41487</v>
@@ -11309,7 +11307,7 @@
         <v>41616</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23"/>
       <c r="B395" s="20" t="s">
         <v>247</v>
@@ -11329,7 +11327,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23">
         <f>EDATE(A394,1)</f>
         <v>41518</v>
@@ -11354,7 +11352,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23">
         <f t="shared" si="1"/>
         <v>41548</v>
@@ -11381,7 +11379,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23"/>
       <c r="B398" s="20" t="s">
         <v>410</v>
@@ -11401,7 +11399,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23">
         <f>EDATE(A397,1)</f>
         <v>41579</v>
@@ -11428,7 +11426,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23"/>
       <c r="B400" s="20" t="s">
         <v>103</v>
@@ -11448,7 +11446,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>252</v>
@@ -11468,7 +11466,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23">
         <f>EDATE(A399,1)</f>
         <v>41609</v>
@@ -11495,7 +11493,7 @@
         <v>41559</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23"/>
       <c r="B403" s="20" t="s">
         <v>103</v>
@@ -11515,7 +11513,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23"/>
       <c r="B404" s="20" t="s">
         <v>252</v>
@@ -11535,7 +11533,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="48" t="s">
         <v>194</v>
       </c>
@@ -11557,7 +11555,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23">
         <f>EDATE(A402,1)</f>
         <v>41640</v>
@@ -11582,7 +11580,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23">
         <f t="shared" si="1"/>
         <v>41671</v>
@@ -11607,7 +11605,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23">
         <f t="shared" si="1"/>
         <v>41699</v>
@@ -11632,7 +11630,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23">
         <f t="shared" si="1"/>
         <v>41730</v>
@@ -11657,7 +11655,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23">
         <f t="shared" si="1"/>
         <v>41760</v>
@@ -11684,7 +11682,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23"/>
       <c r="B411" s="20" t="s">
         <v>107</v>
@@ -11703,7 +11701,7 @@
         <v>41888</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23"/>
       <c r="B412" s="20" t="s">
         <v>419</v>
@@ -11720,7 +11718,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23">
         <f>EDATE(A410,1)</f>
         <v>41791</v>
@@ -11745,7 +11743,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23">
         <f t="shared" si="1"/>
         <v>41821</v>
@@ -11772,7 +11770,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>103</v>
@@ -11792,7 +11790,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23"/>
       <c r="B416" s="20" t="s">
         <v>154</v>
@@ -11812,7 +11810,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23">
         <f>EDATE(A414,1)</f>
         <v>41852</v>
@@ -11837,7 +11835,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="23">
         <f t="shared" si="1"/>
         <v>41883</v>
@@ -11864,7 +11862,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23"/>
       <c r="B419" s="20" t="s">
         <v>422</v>
@@ -11884,7 +11882,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23">
         <f>EDATE(A418,1)</f>
         <v>41913</v>
@@ -11909,7 +11907,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23">
         <f t="shared" si="1"/>
         <v>41944</v>
@@ -11934,7 +11932,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23"/>
       <c r="B422" s="20" t="s">
         <v>103</v>
@@ -11954,7 +11952,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="23"/>
       <c r="B423" s="20" t="s">
         <v>254</v>
@@ -11976,7 +11974,7 @@
         <v>41651</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23"/>
       <c r="B424" s="20" t="s">
         <v>254</v>
@@ -11998,7 +11996,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>424</v>
@@ -12018,7 +12016,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23">
         <f>EDATE(A421,1)</f>
         <v>41974</v>
@@ -12043,7 +12041,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="48" t="s">
         <v>193</v>
       </c>
@@ -12065,7 +12063,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23">
         <f>EDATE(A426,1)</f>
         <v>42005</v>
@@ -12090,7 +12088,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23">
         <f>EDATE(A428,1)</f>
         <v>42036</v>
@@ -12117,7 +12115,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="23"/>
       <c r="B430" s="20" t="s">
         <v>433</v>
@@ -12134,7 +12132,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23">
         <f>EDATE(A429,1)</f>
         <v>42064</v>
@@ -12161,7 +12159,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23"/>
       <c r="B432" s="20" t="s">
         <v>103</v>
@@ -12178,7 +12176,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23"/>
       <c r="B433" s="20" t="s">
         <v>291</v>
@@ -12195,7 +12193,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23">
         <f>EDATE(A431,1)</f>
         <v>42095</v>
@@ -12220,7 +12218,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="23">
         <f t="shared" si="1"/>
         <v>42125</v>
@@ -12244,7 +12242,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23"/>
       <c r="B436" s="20" t="s">
         <v>438</v>
@@ -12261,7 +12259,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="23">
         <f>EDATE(A435,1)</f>
         <v>42156</v>
@@ -12286,7 +12284,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="23">
         <f t="shared" si="1"/>
         <v>42186</v>
@@ -12313,7 +12311,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23"/>
       <c r="B439" s="20" t="s">
         <v>439</v>
@@ -12330,7 +12328,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="23">
         <f>EDATE(A438,1)</f>
         <v>42217</v>
@@ -12355,7 +12353,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="23">
         <f t="shared" si="1"/>
         <v>42248</v>
@@ -12382,7 +12380,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="23"/>
       <c r="B442" s="20" t="s">
         <v>441</v>
@@ -12399,7 +12397,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="23">
         <f>EDATE(A441,1)</f>
         <v>42278</v>
@@ -12426,7 +12424,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="23"/>
       <c r="B444" s="20" t="s">
         <v>127</v>
@@ -12448,7 +12446,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="23"/>
       <c r="B445" s="20" t="s">
         <v>154</v>
@@ -12468,7 +12466,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="23">
         <f>EDATE(A443,1)</f>
         <v>42309</v>
@@ -12493,7 +12491,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="23">
         <f t="shared" si="1"/>
         <v>42339</v>
@@ -12520,7 +12518,7 @@
         <v>42197</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="23"/>
       <c r="B448" s="20" t="s">
         <v>103</v>
@@ -12540,7 +12538,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="23"/>
       <c r="B449" s="20" t="s">
         <v>254</v>
@@ -12560,7 +12558,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="23"/>
       <c r="B450" s="20" t="s">
         <v>448</v>
@@ -12577,7 +12575,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="48" t="s">
         <v>192</v>
       </c>
@@ -12599,7 +12597,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="23">
         <f>EDATE(A447,1)</f>
         <v>42370</v>
@@ -12624,7 +12622,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="23">
         <f t="shared" si="1"/>
         <v>42401</v>
@@ -12649,7 +12647,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="23">
         <f t="shared" si="1"/>
         <v>42430</v>
@@ -12674,7 +12672,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="23">
         <f t="shared" si="1"/>
         <v>42461</v>
@@ -12699,7 +12697,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="23">
         <f t="shared" si="1"/>
         <v>42491</v>
@@ -12724,7 +12722,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="23"/>
       <c r="B457" s="20" t="s">
         <v>254</v>
@@ -12746,7 +12744,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="23"/>
       <c r="B458" s="20" t="s">
         <v>453</v>
@@ -12766,7 +12764,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="23">
         <f>EDATE(A456,1)</f>
         <v>42522</v>
@@ -12791,7 +12789,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="23">
         <f t="shared" si="1"/>
         <v>42552</v>
@@ -12816,7 +12814,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="23">
         <f t="shared" si="1"/>
         <v>42583</v>
@@ -12841,7 +12839,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="23">
         <f t="shared" si="1"/>
         <v>42614</v>
@@ -12866,7 +12864,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="23">
         <f t="shared" si="1"/>
         <v>42644</v>
@@ -12891,7 +12889,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="23"/>
       <c r="B464" s="20" t="s">
         <v>108</v>
@@ -12913,7 +12911,7 @@
         <v>42685</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="23"/>
       <c r="B465" s="20" t="s">
         <v>456</v>
@@ -12933,7 +12931,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="23">
         <f>EDATE(A463,1)</f>
         <v>42675</v>
@@ -12960,7 +12958,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="23"/>
       <c r="B467" s="20" t="s">
         <v>103</v>
@@ -12980,7 +12978,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="23"/>
       <c r="B468" s="20" t="s">
         <v>255</v>
@@ -13000,7 +12998,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="23">
         <f>EDATE(A466,1)</f>
         <v>42705</v>
@@ -13025,7 +13023,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="48" t="s">
         <v>191</v>
       </c>
@@ -13047,7 +13045,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="23">
         <f>EDATE(A469,1)</f>
         <v>42736</v>
@@ -13072,7 +13070,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="23">
         <f t="shared" si="1"/>
         <v>42767</v>
@@ -13097,7 +13095,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="23">
         <f t="shared" si="1"/>
         <v>42795</v>
@@ -13122,7 +13120,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="23">
         <f t="shared" si="1"/>
         <v>42826</v>
@@ -13147,7 +13145,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="23">
         <f t="shared" si="1"/>
         <v>42856</v>
@@ -13172,7 +13170,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="23">
         <f t="shared" si="1"/>
         <v>42887</v>
@@ -13197,7 +13195,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="23"/>
       <c r="B477" s="20" t="s">
         <v>103</v>
@@ -13217,7 +13215,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="23"/>
       <c r="B478" s="20" t="s">
         <v>465</v>
@@ -13237,7 +13235,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="23">
         <f>EDATE(A476,1)</f>
         <v>42917</v>
@@ -13262,7 +13260,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="23">
         <f t="shared" si="1"/>
         <v>42948</v>
@@ -13289,7 +13287,7 @@
         <v>42924</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="23"/>
       <c r="B481" s="20" t="s">
         <v>149</v>
@@ -13311,7 +13309,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="23"/>
       <c r="B482" s="20" t="s">
         <v>108</v>
@@ -13333,7 +13331,7 @@
         <v>42925</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="23"/>
       <c r="B483" s="20" t="s">
         <v>467</v>
@@ -13353,7 +13351,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="23">
         <f>EDATE(A480,1)</f>
         <v>42979</v>
@@ -13378,7 +13376,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="23">
         <f t="shared" si="1"/>
         <v>43009</v>
@@ -13403,7 +13401,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="23">
         <f t="shared" si="1"/>
         <v>43040</v>
@@ -13430,7 +13428,7 @@
         <v>42805</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="23"/>
       <c r="B487" s="20" t="s">
         <v>103</v>
@@ -13450,7 +13448,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="23"/>
       <c r="B488" s="20" t="s">
         <v>108</v>
@@ -13472,7 +13470,7 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="23"/>
       <c r="B489" s="20" t="s">
         <v>183</v>
@@ -13494,7 +13492,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="23">
         <f>EDATE(A486,1)</f>
         <v>43070</v>
@@ -13521,7 +13519,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="48" t="s">
         <v>47</v>
       </c>
@@ -13539,7 +13537,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>43101</v>
       </c>
@@ -13559,7 +13557,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>43132</v>
       </c>
@@ -13579,7 +13577,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>43160</v>
       </c>
@@ -13599,7 +13597,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>43191</v>
       </c>
@@ -13619,7 +13617,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="41">
         <v>43221</v>
       </c>
@@ -13645,7 +13643,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>48</v>
@@ -13669,7 +13667,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>43252</v>
       </c>
@@ -13689,7 +13687,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>43282</v>
       </c>
@@ -13709,7 +13707,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>43313</v>
       </c>
@@ -13729,7 +13727,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>43344</v>
       </c>
@@ -13749,7 +13747,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>43374</v>
       </c>
@@ -13769,7 +13767,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>43405</v>
       </c>
@@ -13789,7 +13787,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>82</v>
@@ -13811,7 +13809,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>52</v>
@@ -13835,7 +13833,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>53</v>
@@ -13855,7 +13853,7 @@
         <v>43446</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>53</v>
@@ -13875,7 +13873,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>53</v>
@@ -13895,7 +13893,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>43435</v>
       </c>
@@ -13915,7 +13913,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="23" t="s">
         <v>58</v>
       </c>
@@ -13933,7 +13931,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>43466</v>
       </c>
@@ -13953,7 +13951,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>43497</v>
       </c>
@@ -13977,7 +13975,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>43525</v>
       </c>
@@ -13997,7 +13995,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>43556</v>
       </c>
@@ -14017,7 +14015,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>43586</v>
       </c>
@@ -14037,7 +14035,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>43617</v>
       </c>
@@ -14057,7 +14055,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>43647</v>
       </c>
@@ -14077,7 +14075,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>43678</v>
       </c>
@@ -14101,7 +14099,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>83</v>
@@ -14123,7 +14121,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>60</v>
@@ -14145,7 +14143,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>53</v>
@@ -14163,7 +14161,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>43709</v>
       </c>
@@ -14183,7 +14181,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>43739</v>
       </c>
@@ -14203,7 +14201,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>43770</v>
       </c>
@@ -14223,7 +14221,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>43800</v>
       </c>
@@ -14249,7 +14247,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>82</v>
@@ -14271,7 +14269,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="48" t="s">
         <v>64</v>
       </c>
@@ -14289,7 +14287,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>43831</v>
       </c>
@@ -14313,7 +14311,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>84</v>
@@ -14335,7 +14333,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>43862</v>
       </c>
@@ -14355,7 +14353,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>43891</v>
       </c>
@@ -14375,7 +14373,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>43922</v>
       </c>
@@ -14395,7 +14393,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>43952</v>
       </c>
@@ -14415,7 +14413,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>43983</v>
       </c>
@@ -14435,7 +14433,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>44013</v>
       </c>
@@ -14455,7 +14453,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>44044</v>
       </c>
@@ -14475,7 +14473,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>44075</v>
       </c>
@@ -14495,7 +14493,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>44105</v>
       </c>
@@ -14515,7 +14513,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>44136</v>
       </c>
@@ -14535,7 +14533,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>44166</v>
       </c>
@@ -14559,7 +14557,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="48" t="s">
         <v>69</v>
       </c>
@@ -14577,7 +14575,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>44197</v>
       </c>
@@ -14597,7 +14595,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>44228</v>
       </c>
@@ -14617,7 +14615,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>44256</v>
       </c>
@@ -14637,7 +14635,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>44287</v>
       </c>
@@ -14657,7 +14655,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>44317</v>
       </c>
@@ -14677,7 +14675,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>44348</v>
       </c>
@@ -14697,7 +14695,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>44378</v>
       </c>
@@ -14717,7 +14715,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>44409</v>
       </c>
@@ -14741,7 +14739,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>44440</v>
       </c>
@@ -14761,7 +14759,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>44470</v>
       </c>
@@ -14781,7 +14779,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>44501</v>
       </c>
@@ -14801,7 +14799,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>44531</v>
       </c>
@@ -14827,7 +14825,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>53</v>
@@ -14847,7 +14845,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>84</v>
@@ -14869,7 +14867,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>72</v>
@@ -14889,7 +14887,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="48" t="s">
         <v>76</v>
       </c>
@@ -14907,7 +14905,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>44562</v>
       </c>
@@ -14927,7 +14925,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>44593</v>
       </c>
@@ -14947,7 +14945,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>44621</v>
       </c>
@@ -14967,7 +14965,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>44652</v>
       </c>
@@ -14993,7 +14991,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>44713</v>
       </c>
@@ -15019,7 +15017,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>44743</v>
       </c>
@@ -15045,7 +15043,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
         <v>83</v>
@@ -15067,7 +15065,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>53</v>
@@ -15087,7 +15085,7 @@
         <v>44689</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>44774</v>
       </c>
@@ -15107,7 +15105,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>44805</v>
       </c>
@@ -15127,7 +15125,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>44835</v>
       </c>
@@ -15147,7 +15145,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>44866</v>
       </c>
@@ -15171,7 +15169,7 @@
         <v>44907</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>44896</v>
       </c>
@@ -15197,7 +15195,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="48" t="s">
         <v>87</v>
       </c>
@@ -15215,7 +15213,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>44927</v>
       </c>
@@ -15235,7 +15233,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>44958</v>
       </c>
@@ -15261,7 +15259,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>44986</v>
       </c>
@@ -15281,7 +15279,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>45017</v>
       </c>
@@ -15301,47 +15299,53 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>45047</v>
       </c>
       <c r="B576" s="20"/>
-      <c r="C576" s="13"/>
+      <c r="C576" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D576" s="39"/>
       <c r="E576" s="9"/>
       <c r="F576" s="20"/>
-      <c r="G576" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G576" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H576" s="39"/>
       <c r="I576" s="9"/>
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>45078</v>
       </c>
       <c r="B577" s="20"/>
-      <c r="C577" s="13"/>
+      <c r="C577" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D577" s="39"/>
       <c r="E577" s="9"/>
       <c r="F577" s="20"/>
-      <c r="G577" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G577" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H577" s="39"/>
       <c r="I577" s="9"/>
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>45108</v>
       </c>
-      <c r="B578" s="20"/>
+      <c r="B578" s="20" t="s">
+        <v>103</v>
+      </c>
       <c r="C578" s="13"/>
       <c r="D578" s="39"/>
       <c r="E578" s="9"/>
@@ -15353,9 +15357,11 @@
       <c r="H578" s="39"/>
       <c r="I578" s="9"/>
       <c r="J578" s="11"/>
-      <c r="K578" s="20"/>
-    </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K578" s="49">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>45139</v>
       </c>
@@ -15373,7 +15379,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>45170</v>
       </c>
@@ -15391,7 +15397,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>45200</v>
       </c>
@@ -15409,7 +15415,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>45231</v>
       </c>
@@ -15427,7 +15433,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>45261</v>
       </c>
@@ -15445,7 +15451,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>45292</v>
       </c>
@@ -15463,7 +15469,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>45323</v>
       </c>
@@ -15481,7 +15487,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>45352</v>
       </c>
@@ -15499,7 +15505,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>45383</v>
       </c>
@@ -15517,7 +15523,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>45413</v>
       </c>
@@ -15535,7 +15541,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>45444</v>
       </c>
@@ -15553,7 +15559,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <v>45474</v>
       </c>
@@ -15571,7 +15577,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>45505</v>
       </c>
@@ -15589,7 +15595,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>45536</v>
       </c>
@@ -15607,7 +15613,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>45566</v>
       </c>
@@ -15625,7 +15631,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>45597</v>
       </c>
@@ -15643,7 +15649,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>45627</v>
       </c>
@@ -15661,7 +15667,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>45658</v>
       </c>
@@ -15679,7 +15685,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>45689</v>
       </c>
@@ -15697,7 +15703,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>45717</v>
       </c>
@@ -15715,7 +15721,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>45748</v>
       </c>
@@ -15733,7 +15739,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>45778</v>
       </c>
@@ -15751,7 +15757,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>45809</v>
       </c>
@@ -15769,7 +15775,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>45839</v>
       </c>
@@ -15787,7 +15793,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>45870</v>
       </c>
@@ -15805,7 +15811,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>45901</v>
       </c>
@@ -15823,7 +15829,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>45931</v>
       </c>
@@ -15841,7 +15847,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <v>45962</v>
       </c>
@@ -15859,7 +15865,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
         <v>45992</v>
       </c>
@@ -15877,7 +15883,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -15893,7 +15899,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40"/>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -15909,7 +15915,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -15925,7 +15931,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="41"/>
       <c r="B611" s="15"/>
       <c r="C611" s="42"/>
@@ -15957,10 +15963,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15983,28 +15989,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>32</v>
       </c>
@@ -16017,7 +16023,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>23</v>
       </c>
@@ -16046,7 +16052,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>13.625</v>
       </c>
@@ -16078,17 +16084,17 @@
         <v>0.12499999999999978</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>88</v>
       </c>
@@ -16112,10 +16118,10 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>318.98099999999994</v>
+        <v>323.98099999999994</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -16143,7 +16149,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16169,7 +16175,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16195,7 +16201,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16221,7 +16227,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16247,7 +16253,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16273,7 +16279,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16299,7 +16305,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16325,7 +16331,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16345,7 +16351,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16365,7 +16371,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16385,7 +16391,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16406,7 +16412,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16427,7 +16433,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16448,7 +16454,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16469,7 +16475,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16490,7 +16496,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -16511,7 +16517,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -16532,7 +16538,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -16553,7 +16559,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -16574,7 +16580,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -16595,7 +16601,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16616,7 +16622,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16637,7 +16643,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16658,7 +16664,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16679,7 +16685,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16700,7 +16706,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16721,7 +16727,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16742,7 +16748,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16763,7 +16769,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16784,7 +16790,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -16805,7 +16811,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -16814,7 +16820,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -16823,7 +16829,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -16832,7 +16838,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16841,7 +16847,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16850,7 +16856,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16859,7 +16865,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16868,7 +16874,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -16877,7 +16883,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16886,7 +16892,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16895,7 +16901,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -16904,7 +16910,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -16913,7 +16919,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -16922,7 +16928,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -16931,7 +16937,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -16940,7 +16946,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -16949,7 +16955,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -16958,7 +16964,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -16967,7 +16973,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -16976,7 +16982,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -16985,7 +16991,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -16994,7 +17000,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17003,7 +17009,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17012,7 +17018,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17021,7 +17027,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17030,7 +17036,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17039,7 +17045,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17048,7 +17054,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17057,7 +17063,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17066,7 +17072,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
